--- a/New_number_BINOL.xlsx
+++ b/New_number_BINOL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\THUNDERDBDT\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive_all\OneDrive\Work\work_part\16.Photoinduced_Deracemization_Binaphthols\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{358F7A1D-EF05-4D5E-87DF-A6DD16035C19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EADBB884-BA1F-4A26-B9EE-FA5F305CBEA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -356,19 +356,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B66"/>
+  <dimension ref="A1:B244"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD19"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="G114" sqref="G114"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.125" customWidth="1"/>
-    <col min="2" max="2" width="11.625" customWidth="1"/>
+    <col min="1" max="1" width="11.08984375" customWidth="1"/>
+    <col min="2" max="2" width="11.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -376,7 +376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -384,7 +384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -392,7 +392,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -400,7 +400,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -408,7 +408,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -416,7 +416,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -424,7 +424,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -432,7 +432,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -440,7 +440,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -448,7 +448,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -456,7 +456,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -464,7 +464,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -472,7 +472,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -480,7 +480,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -488,7 +488,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -496,7 +496,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -504,7 +504,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -512,7 +512,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -520,7 +520,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -528,7 +528,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -536,7 +536,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -544,7 +544,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -552,7 +552,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -560,7 +560,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -568,7 +568,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -576,7 +576,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -584,7 +584,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -592,7 +592,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -600,7 +600,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -608,7 +608,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -616,7 +616,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -624,7 +624,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -632,7 +632,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -640,7 +640,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -648,7 +648,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -656,7 +656,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -664,7 +664,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -672,7 +672,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -680,7 +680,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -688,7 +688,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -696,7 +696,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -704,7 +704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -712,7 +712,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -720,7 +720,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -728,7 +728,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -736,7 +736,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -744,7 +744,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -752,7 +752,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -760,7 +760,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -768,7 +768,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -776,7 +776,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -784,7 +784,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -792,7 +792,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -800,7 +800,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -808,7 +808,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -816,7 +816,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -824,7 +824,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -832,7 +832,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -840,7 +840,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -848,7 +848,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -856,7 +856,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -864,7 +864,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -872,7 +872,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -880,7 +880,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -888,12 +888,1436 @@
         <v>128</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66">
         <v>125</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>1001</v>
+      </c>
+      <c r="B67">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>1002</v>
+      </c>
+      <c r="B68">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>1003</v>
+      </c>
+      <c r="B69">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>1004</v>
+      </c>
+      <c r="B70">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>1005</v>
+      </c>
+      <c r="B71">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>1006</v>
+      </c>
+      <c r="B72">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>1007</v>
+      </c>
+      <c r="B73">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>1008</v>
+      </c>
+      <c r="B74">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>1009</v>
+      </c>
+      <c r="B75">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>1010</v>
+      </c>
+      <c r="B76">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>1011</v>
+      </c>
+      <c r="B77">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>1012</v>
+      </c>
+      <c r="B78">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>1013</v>
+      </c>
+      <c r="B79">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>1014</v>
+      </c>
+      <c r="B80">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>1015</v>
+      </c>
+      <c r="B81">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>1016</v>
+      </c>
+      <c r="B82">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>1017</v>
+      </c>
+      <c r="B83">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>1018</v>
+      </c>
+      <c r="B84">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>1019</v>
+      </c>
+      <c r="B85">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>1020</v>
+      </c>
+      <c r="B86">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>1021</v>
+      </c>
+      <c r="B87">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>1022</v>
+      </c>
+      <c r="B88">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>1023</v>
+      </c>
+      <c r="B89">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>1024</v>
+      </c>
+      <c r="B90">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>1025</v>
+      </c>
+      <c r="B91">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>1026</v>
+      </c>
+      <c r="B92">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>1027</v>
+      </c>
+      <c r="B93">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>1028</v>
+      </c>
+      <c r="B94">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>1029</v>
+      </c>
+      <c r="B95">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>1030</v>
+      </c>
+      <c r="B96">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>1031</v>
+      </c>
+      <c r="B97">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>1032</v>
+      </c>
+      <c r="B98">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>1033</v>
+      </c>
+      <c r="B99">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>1034</v>
+      </c>
+      <c r="B100">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>1035</v>
+      </c>
+      <c r="B101">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>1036</v>
+      </c>
+      <c r="B102">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>1037</v>
+      </c>
+      <c r="B103">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>1038</v>
+      </c>
+      <c r="B104">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>1039</v>
+      </c>
+      <c r="B105">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>1040</v>
+      </c>
+      <c r="B106">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>1041</v>
+      </c>
+      <c r="B107">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>1042</v>
+      </c>
+      <c r="B108">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>1043</v>
+      </c>
+      <c r="B109">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>1044</v>
+      </c>
+      <c r="B110">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>1045</v>
+      </c>
+      <c r="B111">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>1046</v>
+      </c>
+      <c r="B112">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>1047</v>
+      </c>
+      <c r="B113">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>1048</v>
+      </c>
+      <c r="B114">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>1049</v>
+      </c>
+      <c r="B115">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>1050</v>
+      </c>
+      <c r="B116">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>1051</v>
+      </c>
+      <c r="B117">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>1052</v>
+      </c>
+      <c r="B118">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>1053</v>
+      </c>
+      <c r="B119">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>1054</v>
+      </c>
+      <c r="B120">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>1055</v>
+      </c>
+      <c r="B121">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>1056</v>
+      </c>
+      <c r="B122">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>1057</v>
+      </c>
+      <c r="B123">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>1058</v>
+      </c>
+      <c r="B124">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>1059</v>
+      </c>
+      <c r="B125">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>1060</v>
+      </c>
+      <c r="B126">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>1061</v>
+      </c>
+      <c r="B127">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>1062</v>
+      </c>
+      <c r="B128">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>1063</v>
+      </c>
+      <c r="B129">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>1064</v>
+      </c>
+      <c r="B130">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>1065</v>
+      </c>
+      <c r="B131">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>1066</v>
+      </c>
+      <c r="B132">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>1067</v>
+      </c>
+      <c r="B133">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>1068</v>
+      </c>
+      <c r="B134">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>1069</v>
+      </c>
+      <c r="B135">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>1070</v>
+      </c>
+      <c r="B136">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>1071</v>
+      </c>
+      <c r="B137">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>1072</v>
+      </c>
+      <c r="B138">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>1073</v>
+      </c>
+      <c r="B139">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>1074</v>
+      </c>
+      <c r="B140">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>1075</v>
+      </c>
+      <c r="B141">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>1076</v>
+      </c>
+      <c r="B142">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>1077</v>
+      </c>
+      <c r="B143">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>1078</v>
+      </c>
+      <c r="B144">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>1079</v>
+      </c>
+      <c r="B145">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>1080</v>
+      </c>
+      <c r="B146">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>1081</v>
+      </c>
+      <c r="B147">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>1082</v>
+      </c>
+      <c r="B148">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>1083</v>
+      </c>
+      <c r="B149">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>1084</v>
+      </c>
+      <c r="B150">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>1085</v>
+      </c>
+      <c r="B151">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>1086</v>
+      </c>
+      <c r="B152">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>1087</v>
+      </c>
+      <c r="B153">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>1088</v>
+      </c>
+      <c r="B154">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>1089</v>
+      </c>
+      <c r="B155">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>1090</v>
+      </c>
+      <c r="B156">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>1091</v>
+      </c>
+      <c r="B157">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>1092</v>
+      </c>
+      <c r="B158">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>1093</v>
+      </c>
+      <c r="B159">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>1094</v>
+      </c>
+      <c r="B160">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>1095</v>
+      </c>
+      <c r="B161">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>1096</v>
+      </c>
+      <c r="B162">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>1097</v>
+      </c>
+      <c r="B163">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>1098</v>
+      </c>
+      <c r="B164">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>1099</v>
+      </c>
+      <c r="B165">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>1100</v>
+      </c>
+      <c r="B166">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>1101</v>
+      </c>
+      <c r="B167">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>1102</v>
+      </c>
+      <c r="B168">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>1103</v>
+      </c>
+      <c r="B169">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>1104</v>
+      </c>
+      <c r="B170">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>1105</v>
+      </c>
+      <c r="B171">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>1106</v>
+      </c>
+      <c r="B172">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>1107</v>
+      </c>
+      <c r="B173">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>1108</v>
+      </c>
+      <c r="B174">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>1109</v>
+      </c>
+      <c r="B175">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>1110</v>
+      </c>
+      <c r="B176">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>1111</v>
+      </c>
+      <c r="B177">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>1112</v>
+      </c>
+      <c r="B178">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>1113</v>
+      </c>
+      <c r="B179">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>1114</v>
+      </c>
+      <c r="B180">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>1115</v>
+      </c>
+      <c r="B181">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>1116</v>
+      </c>
+      <c r="B182">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>1117</v>
+      </c>
+      <c r="B183">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>1118</v>
+      </c>
+      <c r="B184">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>1119</v>
+      </c>
+      <c r="B185">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>1120</v>
+      </c>
+      <c r="B186">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>1121</v>
+      </c>
+      <c r="B187">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>1122</v>
+      </c>
+      <c r="B188">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>1123</v>
+      </c>
+      <c r="B189">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>1124</v>
+      </c>
+      <c r="B190">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>1125</v>
+      </c>
+      <c r="B191">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>1126</v>
+      </c>
+      <c r="B192">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>1127</v>
+      </c>
+      <c r="B193">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>1128</v>
+      </c>
+      <c r="B194">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>1129</v>
+      </c>
+      <c r="B195">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>1130</v>
+      </c>
+      <c r="B196">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>1131</v>
+      </c>
+      <c r="B197">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>1132</v>
+      </c>
+      <c r="B198">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>1133</v>
+      </c>
+      <c r="B199">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>1134</v>
+      </c>
+      <c r="B200">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>1135</v>
+      </c>
+      <c r="B201">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>1136</v>
+      </c>
+      <c r="B202">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>1137</v>
+      </c>
+      <c r="B203">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>1138</v>
+      </c>
+      <c r="B204">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>1139</v>
+      </c>
+      <c r="B205">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>1140</v>
+      </c>
+      <c r="B206">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>1141</v>
+      </c>
+      <c r="B207">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>1142</v>
+      </c>
+      <c r="B208">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>1143</v>
+      </c>
+      <c r="B209">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>1144</v>
+      </c>
+      <c r="B210">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>1145</v>
+      </c>
+      <c r="B211">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>1146</v>
+      </c>
+      <c r="B212">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>1147</v>
+      </c>
+      <c r="B213">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>1148</v>
+      </c>
+      <c r="B214">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>1149</v>
+      </c>
+      <c r="B215">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>1150</v>
+      </c>
+      <c r="B216">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>1151</v>
+      </c>
+      <c r="B217">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>1152</v>
+      </c>
+      <c r="B218">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>1153</v>
+      </c>
+      <c r="B219">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>1154</v>
+      </c>
+      <c r="B220">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>1155</v>
+      </c>
+      <c r="B221">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>1156</v>
+      </c>
+      <c r="B222">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>1157</v>
+      </c>
+      <c r="B223">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>1158</v>
+      </c>
+      <c r="B224">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>1159</v>
+      </c>
+      <c r="B225">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>1160</v>
+      </c>
+      <c r="B226">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>1161</v>
+      </c>
+      <c r="B227">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>1162</v>
+      </c>
+      <c r="B228">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>1163</v>
+      </c>
+      <c r="B229">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>1164</v>
+      </c>
+      <c r="B230">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>1165</v>
+      </c>
+      <c r="B231">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>1166</v>
+      </c>
+      <c r="B232">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>1167</v>
+      </c>
+      <c r="B233">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>1168</v>
+      </c>
+      <c r="B234">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>1169</v>
+      </c>
+      <c r="B235">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>1170</v>
+      </c>
+      <c r="B236">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>1171</v>
+      </c>
+      <c r="B237">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>1172</v>
+      </c>
+      <c r="B238">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>1173</v>
+      </c>
+      <c r="B239">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>1174</v>
+      </c>
+      <c r="B240">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>1175</v>
+      </c>
+      <c r="B241">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>1176</v>
+      </c>
+      <c r="B242">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>1177</v>
+      </c>
+      <c r="B243">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>1178</v>
+      </c>
+      <c r="B244">
+        <v>1150</v>
       </c>
     </row>
   </sheetData>
@@ -909,7 +2333,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -923,7 +2347,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
